--- a/Tomczak/dok/Crestron Helper.xlsx
+++ b/Tomczak/dok/Crestron Helper.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="Helper" sheetId="2" r:id="rId1"/>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,6 +590,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -637,7 +640,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -672,7 +675,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -888,30 +891,30 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G28" sqref="G28"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="12" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="27" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="23.5546875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="27" customWidth="1"/>
+    <col min="15" max="15" width="20.5546875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -958,7 +961,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1042,7 +1045,7 @@
       <c r="N3" s="13"/>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -1081,7 +1084,7 @@
       <c r="N4" s="16"/>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:15" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -1124,7 +1127,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -1161,7 +1164,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="32"/>
     </row>
-    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -1202,7 +1205,7 @@
       </c>
       <c r="O7" s="32"/>
     </row>
-    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -1241,7 +1244,7 @@
       <c r="N8" s="23"/>
       <c r="O8" s="32"/>
     </row>
-    <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -1280,7 +1283,7 @@
       <c r="N9" s="23"/>
       <c r="O9" s="32"/>
     </row>
-    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -1319,7 +1322,7 @@
       <c r="N10" s="23"/>
       <c r="O10" s="32"/>
     </row>
-    <row r="11" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -1358,7 +1361,7 @@
       <c r="N11" s="23"/>
       <c r="O11" s="32"/>
     </row>
-    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -1397,7 +1400,7 @@
       <c r="N12" s="23"/>
       <c r="O12" s="32"/>
     </row>
-    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -1436,7 +1439,7 @@
       <c r="N13" s="23"/>
       <c r="O13" s="32"/>
     </row>
-    <row r="14" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -1475,7 +1478,7 @@
       <c r="N14" s="23"/>
       <c r="O14" s="32"/>
     </row>
-    <row r="15" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -1514,7 +1517,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="32"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -1557,7 +1560,7 @@
       <c r="N16" s="23"/>
       <c r="O16" s="32"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -1596,7 +1599,7 @@
       <c r="N17" s="23"/>
       <c r="O17" s="32"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -1635,7 +1638,7 @@
       <c r="N18" s="23"/>
       <c r="O18" s="32"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -1674,7 +1677,7 @@
       <c r="N19" s="23"/>
       <c r="O19" s="32"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -1713,7 +1716,7 @@
       <c r="N20" s="23"/>
       <c r="O20" s="32"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -1752,7 +1755,7 @@
       <c r="N21" s="23"/>
       <c r="O21" s="32"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -1791,7 +1794,7 @@
       <c r="N22" s="23"/>
       <c r="O22" s="32"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>22</v>
       </c>
